--- a/output/5Y_P23_KFSDIV.xlsx
+++ b/output/5Y_P23_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8804</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6268</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3636</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8711</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1252</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1934</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1176</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3311</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3637</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6447</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.486</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.1958</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4264</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>17.107</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.8894</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4004</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3877</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6367</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.0061</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.835</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.4216</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2404</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.382</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>11.9583</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.2036</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9136</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.4338</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9657</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3568</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2487</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3991</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.5985</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.6955</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3398</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.8469</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.129</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.716</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.4613</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.6545</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2345</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.1636</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.8145</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2352</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.8241</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2543</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.5675</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967000000000001</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0064</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8804</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6268</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3636</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8711</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1252</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1934</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1176</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3311</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3637</v>
@@ -5515,10 +5518,10 @@
         <v>260895.8348</v>
       </c>
       <c r="K23" s="1">
-        <v>182061.538</v>
+        <v>182090.3922</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2648</v>
+        <v>13.2669</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6447</v>
@@ -5568,10 +5571,10 @@
         <v>260561.2961</v>
       </c>
       <c r="K24" s="1">
-        <v>191652.4136</v>
+        <v>191681.2678</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3573</v>
+        <v>13.3593</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.486</v>
@@ -5621,10 +5624,10 @@
         <v>296605.8819</v>
       </c>
       <c r="K25" s="1">
-        <v>212030.0145</v>
+        <v>212058.8687</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4735</v>
+        <v>13.4753</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.1958</v>
@@ -5674,10 +5677,10 @@
         <v>317606.5936</v>
       </c>
       <c r="K26" s="1">
-        <v>208804.4879</v>
+        <v>208846.23</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4461</v>
+        <v>13.4488</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4264</v>
@@ -5727,10 +5730,10 @@
         <v>331167.1069</v>
       </c>
       <c r="K27" s="1">
-        <v>207799.7642</v>
+        <v>207845.5182</v>
       </c>
       <c r="L27" s="1">
-        <v>13.435</v>
+        <v>13.438</v>
       </c>
       <c r="M27" s="1">
         <v>0.75</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>17.107</v>
@@ -5780,10 +5783,10 @@
         <v>362353.5621</v>
       </c>
       <c r="K28" s="1">
-        <v>214265.0582</v>
+        <v>214310.8123</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5099</v>
+        <v>13.5128</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.8894</v>
@@ -5833,10 +5836,10 @@
         <v>368918.6247</v>
       </c>
       <c r="K29" s="1">
-        <v>213489.9522</v>
+        <v>213538.8037</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4995</v>
+        <v>13.5026</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4004</v>
@@ -5886,10 +5889,10 @@
         <v>384991.4049</v>
       </c>
       <c r="K30" s="1">
-        <v>226978.7709</v>
+        <v>227027.6224</v>
       </c>
       <c r="L30" s="1">
-        <v>13.6638</v>
+        <v>13.6667</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3877</v>
@@ -5939,10 +5942,10 @@
         <v>377011.2125</v>
       </c>
       <c r="K31" s="1">
-        <v>245157.9556</v>
+        <v>245206.8071</v>
       </c>
       <c r="L31" s="1">
-        <v>13.8367</v>
+        <v>13.8395</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6367</v>
@@ -5992,10 +5995,10 @@
         <v>372257.6423</v>
       </c>
       <c r="K32" s="1">
-        <v>273177.4113</v>
+        <v>273226.2628</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9839</v>
+        <v>13.9864</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.0061</v>
@@ -6045,10 +6048,10 @@
         <v>347624.0319</v>
       </c>
       <c r="K33" s="1">
-        <v>297917.8922</v>
+        <v>297966.7437</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0381</v>
+        <v>14.0404</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.835</v>
@@ -6098,10 +6101,10 @@
         <v>387388.2941</v>
       </c>
       <c r="K34" s="1">
-        <v>342631.4038</v>
+        <v>342680.2553</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8981</v>
+        <v>13.9001</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.4216</v>
@@ -6151,10 +6154,10 @@
         <v>411381.9786</v>
       </c>
       <c r="K35" s="1">
-        <v>332196.6397</v>
+        <v>332287.1921</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8992</v>
+        <v>13.903</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2404</v>
@@ -6204,10 +6207,10 @@
         <v>393532.9151</v>
       </c>
       <c r="K36" s="1">
-        <v>328186.9448</v>
+        <v>328293.5076</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8927</v>
+        <v>13.8972</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.382</v>
@@ -6257,10 +6260,10 @@
         <v>389193.7221</v>
       </c>
       <c r="K37" s="1">
-        <v>366187.818</v>
+        <v>366294.3808</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8251</v>
+        <v>13.8291</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>11.9583</v>
@@ -6310,10 +6313,10 @@
         <v>386745.1492</v>
       </c>
       <c r="K38" s="1">
-        <v>399010.6728</v>
+        <v>399117.2356</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6963</v>
+        <v>13.6999</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.2036</v>
@@ -6363,10 +6366,10 @@
         <v>404245.0653</v>
       </c>
       <c r="K39" s="1">
-        <v>421417.5994</v>
+        <v>421524.1622</v>
       </c>
       <c r="L39" s="1">
-        <v>13.5929</v>
+        <v>13.5963</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9136</v>
@@ -6416,10 +6419,10 @@
         <v>447505.2418</v>
       </c>
       <c r="K40" s="1">
-        <v>423837.7885</v>
+        <v>423944.3513</v>
       </c>
       <c r="L40" s="1">
-        <v>13.5842</v>
+        <v>13.5876</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.4338</v>
@@ -6469,10 +6472,10 @@
         <v>473213.8189</v>
       </c>
       <c r="K41" s="1">
-        <v>411680.372</v>
+        <v>411835.51</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6042</v>
+        <v>13.6094</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9657</v>
@@ -6522,10 +6525,10 @@
         <v>469277.7114</v>
       </c>
       <c r="K42" s="1">
-        <v>405948.8872</v>
+        <v>406126.9329</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6063</v>
+        <v>13.6123</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3568</v>
@@ -6575,10 +6578,10 @@
         <v>499603.989</v>
       </c>
       <c r="K43" s="1">
-        <v>429980.9996</v>
+        <v>430159.0453</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5704</v>
+        <v>13.576</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2487</v>
@@ -6628,10 +6631,10 @@
         <v>506204.3146</v>
       </c>
       <c r="K44" s="1">
-        <v>427604.7718</v>
+        <v>427792.3163</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5715</v>
+        <v>13.5774</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3991</v>
@@ -6681,10 +6684,10 @@
         <v>521032.0148</v>
       </c>
       <c r="K45" s="1">
-        <v>441058.1576</v>
+        <v>441245.7021</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5622</v>
+        <v>13.568</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.5985</v>
@@ -6734,10 +6737,10 @@
         <v>549266.9446</v>
       </c>
       <c r="K46" s="1">
-        <v>446197.2628</v>
+        <v>446384.8073</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5606</v>
+        <v>13.5663</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.6955</v>
@@ -6787,10 +6790,10 @@
         <v>562462.8214</v>
       </c>
       <c r="K47" s="1">
-        <v>449663.2367</v>
+        <v>449850.7812</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5611</v>
+        <v>13.5668</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3398</v>
@@ -6840,10 +6843,10 @@
         <v>560488.0695</v>
       </c>
       <c r="K48" s="1">
-        <v>456480.7466</v>
+        <v>456668.2911</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5635</v>
+        <v>13.5691</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.8469</v>
@@ -6893,10 +6896,10 @@
         <v>562121.0601999999</v>
       </c>
       <c r="K49" s="1">
-        <v>478516.3075</v>
+        <v>478703.852</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5543</v>
+        <v>13.5596</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.129</v>
@@ -6946,10 +6949,10 @@
         <v>582550.1462</v>
       </c>
       <c r="K50" s="1">
-        <v>505991.8443</v>
+        <v>506179.3888</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5155</v>
+        <v>13.5205</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.716</v>
@@ -6999,10 +7002,10 @@
         <v>577138.895</v>
       </c>
       <c r="K51" s="1">
-        <v>505450.8862</v>
+        <v>505640.5937</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5159</v>
+        <v>13.5209</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.4613</v>
@@ -7052,10 +7055,10 @@
         <v>587118.8432</v>
       </c>
       <c r="K52" s="1">
-        <v>530964.0579</v>
+        <v>531153.7653</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4765</v>
+        <v>13.4813</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.6545</v>
@@ -7105,10 +7108,10 @@
         <v>604945.0016</v>
       </c>
       <c r="K53" s="1">
-        <v>551059.6544</v>
+        <v>551249.3619</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4376</v>
+        <v>13.4423</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2345</v>
@@ -7158,10 +7161,10 @@
         <v>597676.2798</v>
       </c>
       <c r="K54" s="1">
-        <v>553161.5908</v>
+        <v>553351.2983</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4346</v>
+        <v>13.4392</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.1636</v>
@@ -7211,10 +7214,10 @@
         <v>615615.097</v>
       </c>
       <c r="K55" s="1">
-        <v>580531.3067</v>
+        <v>580721.0141</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3741</v>
+        <v>13.3785</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.8145</v>
@@ -7264,10 +7267,10 @@
         <v>610064.5747999999</v>
       </c>
       <c r="K56" s="1">
-        <v>593652.6139</v>
+        <v>593842.3213</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3454</v>
+        <v>13.3497</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2352</v>
@@ -7317,10 +7320,10 @@
         <v>592991.488</v>
       </c>
       <c r="K57" s="1">
-        <v>619252.9942</v>
+        <v>619442.7016</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2755</v>
+        <v>13.2796</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.8241</v>
@@ -7370,10 +7373,10 @@
         <v>594945.8074</v>
       </c>
       <c r="K58" s="1">
-        <v>656372.1688</v>
+        <v>656561.8763</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1423</v>
+        <v>13.1461</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2543</v>
@@ -7423,10 +7426,10 @@
         <v>627481.0457</v>
       </c>
       <c r="K59" s="1">
-        <v>686986.4371</v>
+        <v>687176.1446</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0195</v>
+        <v>13.0231</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.5675</v>
@@ -7476,10 +7479,10 @@
         <v>602087.6091999999</v>
       </c>
       <c r="K60" s="1">
-        <v>674277.8687</v>
+        <v>674518.4019000001</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0575</v>
+        <v>13.0622</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967000000000001</v>
@@ -7529,10 +7532,10 @@
         <v>592321.3031</v>
       </c>
       <c r="K61" s="1">
-        <v>719853.3713</v>
+        <v>720093.9044999999</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8676</v>
+        <v>12.8719</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0064</v>
@@ -7582,10 +7585,10 @@
         <v>604517.2478</v>
       </c>
       <c r="K62" s="1">
-        <v>763554.7627</v>
+        <v>763795.2959</v>
       </c>
       <c r="L62" s="1">
-        <v>12.6586</v>
+        <v>12.6626</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8804</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6268</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3636</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8711</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1252</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1934</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1176</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3311</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3637</v>
@@ -8827,10 +8830,10 @@
         <v>262518.1301</v>
       </c>
       <c r="K23" s="1">
-        <v>191935.9142</v>
+        <v>191963.9361</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2978</v>
+        <v>13.2998</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6447</v>
@@ -8880,10 +8883,10 @@
         <v>261620.2492</v>
       </c>
       <c r="K24" s="1">
-        <v>202612.23</v>
+        <v>202640.2519</v>
       </c>
       <c r="L24" s="1">
-        <v>13.394</v>
+        <v>13.3958</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.486</v>
@@ -8933,10 +8936,10 @@
         <v>299111.8158</v>
       </c>
       <c r="K25" s="1">
-        <v>224715.4496</v>
+        <v>224743.4714</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5099</v>
+        <v>13.5116</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.1958</v>
@@ -8986,10 +8989,10 @@
         <v>320768.8828</v>
       </c>
       <c r="K26" s="1">
-        <v>221954.5218</v>
+        <v>221993.5753</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4882</v>
+        <v>13.4906</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4264</v>
@@ -9039,10 +9042,10 @@
         <v>334551.4461</v>
       </c>
       <c r="K27" s="1">
-        <v>221567.5072</v>
+        <v>221608.106</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4842</v>
+        <v>13.4867</v>
       </c>
       <c r="M27" s="1">
         <v>0.75</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>17.107</v>
@@ -9092,10 +9095,10 @@
         <v>367085.5436</v>
       </c>
       <c r="K28" s="1">
-        <v>229143.1391</v>
+        <v>229183.7379</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5653</v>
+        <v>13.5677</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.8894</v>
@@ -9145,10 +9148,10 @@
         <v>373417.7466</v>
       </c>
       <c r="K29" s="1">
-        <v>229054.3992</v>
+        <v>229095.3527</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5642</v>
+        <v>13.5666</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4004</v>
@@ -9198,10 +9201,10 @@
         <v>389877.0395</v>
       </c>
       <c r="K30" s="1">
-        <v>244224.3112</v>
+        <v>244265.2647</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7335</v>
+        <v>13.7358</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3877</v>
@@ -9251,10 +9254,10 @@
         <v>380576.7219</v>
       </c>
       <c r="K31" s="1">
-        <v>264482.1922</v>
+        <v>264523.1457</v>
       </c>
       <c r="L31" s="1">
-        <v>13.9085</v>
+        <v>13.9107</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6367</v>
@@ -9304,10 +9307,10 @@
         <v>374698.8756</v>
       </c>
       <c r="K32" s="1">
-        <v>295381.1866</v>
+        <v>295422.1401</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0525</v>
+        <v>14.0544</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.0061</v>
@@ -9357,10 +9360,10 @@
         <v>347334.5287</v>
       </c>
       <c r="K33" s="1">
-        <v>322859.3789</v>
+        <v>322900.3324</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1027</v>
+        <v>14.1045</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.835</v>
@@ -9410,10 +9413,10 @@
         <v>389495.7049</v>
       </c>
       <c r="K34" s="1">
-        <v>371982.3873</v>
+        <v>372023.3408</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9513</v>
+        <v>13.9529</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.4216</v>
@@ -9463,10 +9466,10 @@
         <v>414668.9582</v>
       </c>
       <c r="K35" s="1">
-        <v>361615.8952</v>
+        <v>361698.2766</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9539</v>
+        <v>13.9571</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2404</v>
@@ -9516,10 +9519,10 @@
         <v>394394.9169</v>
       </c>
       <c r="K36" s="1">
-        <v>358218.1583</v>
+        <v>358314.1067</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9494</v>
+        <v>13.9531</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.382</v>
@@ -9569,10 +9572,10 @@
         <v>388739.8486</v>
       </c>
       <c r="K37" s="1">
-        <v>400509.1769</v>
+        <v>400605.1253</v>
       </c>
       <c r="L37" s="1">
-        <v>13.874</v>
+        <v>13.8773</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>11.9583</v>
@@ -9622,10 +9625,10 @@
         <v>385133.9909</v>
       </c>
       <c r="K38" s="1">
-        <v>437294.392</v>
+        <v>437390.3404</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7373</v>
+        <v>13.7404</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.2036</v>
@@ -9675,10 +9678,10 @@
         <v>403176.8931</v>
       </c>
       <c r="K39" s="1">
-        <v>452526.1307</v>
+        <v>452622.0791</v>
       </c>
       <c r="L39" s="1">
-        <v>13.6699</v>
+        <v>13.6728</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9136</v>
@@ -9728,10 +9731,10 @@
         <v>449091.0292</v>
       </c>
       <c r="K40" s="1">
-        <v>462526.1307</v>
+        <v>462622.0791</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6352</v>
+        <v>13.638</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.4338</v>
@@ -9781,10 +9784,10 @@
         <v>476388.2375</v>
       </c>
       <c r="K41" s="1">
-        <v>454762.6903</v>
+        <v>454889.6577</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6477</v>
+        <v>13.6515</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9657</v>
@@ -9834,10 +9837,10 @@
         <v>471003.1764</v>
       </c>
       <c r="K42" s="1">
-        <v>449592.0221</v>
+        <v>449739.6557</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6499</v>
+        <v>13.6544</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3568</v>
@@ -9887,10 +9890,10 @@
         <v>503473.3525</v>
       </c>
       <c r="K43" s="1">
-        <v>477295.6978</v>
+        <v>477443.3315</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6099</v>
+        <v>13.6141</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2487</v>
@@ -9940,10 +9943,10 @@
         <v>509700.8035</v>
       </c>
       <c r="K44" s="1">
-        <v>475871.2362</v>
+        <v>476024.5641</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6106</v>
+        <v>13.6149</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3991</v>
@@ -9993,10 +9996,10 @@
         <v>525067.0622</v>
       </c>
       <c r="K45" s="1">
-        <v>492038.6592</v>
+        <v>492191.987</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5993</v>
+        <v>13.6035</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.5985</v>
@@ -10046,10 +10049,10 @@
         <v>555368.0713</v>
       </c>
       <c r="K46" s="1">
-        <v>499027.7346</v>
+        <v>499181.0624</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5968</v>
+        <v>13.601</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.6955</v>
@@ -10099,10 +10102,10 @@
         <v>568936.8979</v>
       </c>
       <c r="K47" s="1">
-        <v>504198.6563</v>
+        <v>504351.9841</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5971</v>
+        <v>13.6012</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3398</v>
@@ -10152,10 +10155,10 @@
         <v>565505.3879</v>
       </c>
       <c r="K48" s="1">
-        <v>513161.1835</v>
+        <v>513314.5113</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5993</v>
+        <v>13.6033</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.8469</v>
@@ -10205,10 +10208,10 @@
         <v>566068.2127</v>
       </c>
       <c r="K49" s="1">
-        <v>539239.8785</v>
+        <v>539393.2063</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5878</v>
+        <v>13.5917</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.129</v>
@@ -10258,10 +10261,10 @@
         <v>587816.8963</v>
       </c>
       <c r="K50" s="1">
-        <v>571531.7855999999</v>
+        <v>571685.1134</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5453</v>
+        <v>13.549</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.716</v>
@@ -10311,10 +10314,10 @@
         <v>580399.3894</v>
       </c>
       <c r="K51" s="1">
-        <v>572362.3737999999</v>
+        <v>572515.7016</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5447</v>
+        <v>13.5484</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.4613</v>
@@ -10364,10 +10367,10 @@
         <v>590341.4205</v>
       </c>
       <c r="K52" s="1">
-        <v>602666.0333</v>
+        <v>602819.3612</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5019</v>
+        <v>13.5054</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.6545</v>
@@ -10417,10 +10420,10 @@
         <v>609224.9737</v>
       </c>
       <c r="K53" s="1">
-        <v>626941.6573</v>
+        <v>627094.9851</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4595</v>
+        <v>13.4628</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2345</v>
@@ -10470,10 +10473,10 @@
         <v>599553.0611</v>
       </c>
       <c r="K54" s="1">
-        <v>630873.2291</v>
+        <v>631026.5569</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4544</v>
+        <v>13.4577</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.1636</v>
@@ -10523,10 +10526,10 @@
         <v>618578.4329</v>
       </c>
       <c r="K55" s="1">
-        <v>663621.2188</v>
+        <v>663774.5466</v>
       </c>
       <c r="L55" s="1">
-        <v>13.39</v>
+        <v>13.3931</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.8145</v>
@@ -10576,10 +10579,10 @@
         <v>610770.6228</v>
       </c>
       <c r="K56" s="1">
-        <v>680217.2088</v>
+        <v>680370.5366</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3578</v>
+        <v>13.3608</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2352</v>
@@ -10629,10 +10632,10 @@
         <v>590252.0827</v>
       </c>
       <c r="K57" s="1">
-        <v>700562.4135</v>
+        <v>700715.7413</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3082</v>
+        <v>13.3111</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.8241</v>
@@ -10682,10 +10685,10 @@
         <v>592462.0617</v>
       </c>
       <c r="K58" s="1">
-        <v>710562.4135</v>
+        <v>710715.7413</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2742</v>
+        <v>13.277</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2543</v>
@@ -10735,10 +10738,10 @@
         <v>626309.4436</v>
       </c>
       <c r="K59" s="1">
-        <v>734775.5881000001</v>
+        <v>734928.9159</v>
       </c>
       <c r="L59" s="1">
-        <v>13.177</v>
+        <v>13.1797</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.5675</v>
@@ -10788,10 +10791,10 @@
         <v>597442.2738</v>
       </c>
       <c r="K60" s="1">
-        <v>744775.5881000001</v>
+        <v>744928.9159</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1472</v>
+        <v>13.1499</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967000000000001</v>
@@ -10841,10 +10844,10 @@
         <v>588181.8523</v>
       </c>
       <c r="K61" s="1">
-        <v>754775.5881000001</v>
+        <v>754928.9159</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1053</v>
+        <v>13.1079</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0064</v>
@@ -10894,10 +10897,10 @@
         <v>600443.7506</v>
       </c>
       <c r="K62" s="1">
-        <v>780070.7990999999</v>
+        <v>780224.127</v>
       </c>
       <c r="L62" s="1">
-        <v>12.9739</v>
+        <v>12.9765</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8804</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6268</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3636</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8711</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1252</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1934</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1176</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3311</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3637</v>
@@ -12139,10 +12142,10 @@
         <v>264209.9942</v>
       </c>
       <c r="K23" s="1">
-        <v>202484.6748</v>
+        <v>202511.6567</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3313</v>
+        <v>13.3331</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6447</v>
@@ -12192,10 +12195,10 @@
         <v>262709.5983</v>
       </c>
       <c r="K24" s="1">
-        <v>214360.8899</v>
+        <v>214387.8719</v>
       </c>
       <c r="L24" s="1">
-        <v>13.4311</v>
+        <v>13.4328</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.486</v>
@@ -12245,10 +12248,10 @@
         <v>301750.8932</v>
       </c>
       <c r="K25" s="1">
-        <v>238356.8265</v>
+        <v>238383.8084</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5466</v>
+        <v>13.5481</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.1958</v>
@@ -12298,10 +12301,10 @@
         <v>324114.5312</v>
       </c>
       <c r="K26" s="1">
-        <v>236146.573</v>
+        <v>236182.3862</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5305</v>
+        <v>13.5326</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4264</v>
@@ -12351,10 +12354,10 @@
         <v>338135.6048</v>
       </c>
       <c r="K27" s="1">
-        <v>236481.6193</v>
+        <v>236517.4326</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5337</v>
+        <v>13.5357</v>
       </c>
       <c r="M27" s="1">
         <v>0.75</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>17.107</v>
@@ -12404,10 +12407,10 @@
         <v>372127.6827</v>
       </c>
       <c r="K28" s="1">
-        <v>245318.8029</v>
+        <v>245354.6161</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6209</v>
+        <v>13.6229</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.8894</v>
@@ -12457,10 +12460,10 @@
         <v>378203.764</v>
       </c>
       <c r="K29" s="1">
-        <v>246041.5483</v>
+        <v>246077.3615</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6291</v>
+        <v>13.6311</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4004</v>
@@ -12510,10 +12513,10 @@
         <v>395080.9835</v>
       </c>
       <c r="K30" s="1">
-        <v>263112.8591</v>
+        <v>263148.6724</v>
       </c>
       <c r="L30" s="1">
-        <v>13.8035</v>
+        <v>13.8053</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3877</v>
@@ -12563,10 +12566,10 @@
         <v>384334.9795</v>
       </c>
       <c r="K31" s="1">
-        <v>285718.0966</v>
+        <v>285753.9099</v>
       </c>
       <c r="L31" s="1">
-        <v>13.9805</v>
+        <v>13.9822</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6367</v>
@@ -12616,10 +12619,10 @@
         <v>377221.6817</v>
       </c>
       <c r="K32" s="1">
-        <v>319855.1484</v>
+        <v>319890.9617</v>
       </c>
       <c r="L32" s="1">
-        <v>14.121</v>
+        <v>14.1226</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.0061</v>
@@ -12669,10 +12672,10 @@
         <v>346846.7504</v>
       </c>
       <c r="K33" s="1">
-        <v>350432.7279</v>
+        <v>350468.5412</v>
       </c>
       <c r="L33" s="1">
-        <v>14.167</v>
+        <v>14.1684</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.835</v>
@@ -12722,10 +12725,10 @@
         <v>390567.0339</v>
       </c>
       <c r="K34" s="1">
-        <v>386204.8283</v>
+        <v>386240.6415</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0536</v>
+        <v>14.0549</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.4216</v>
@@ -12775,10 +12778,10 @@
         <v>417012.3462</v>
       </c>
       <c r="K35" s="1">
-        <v>395496.1728</v>
+        <v>395531.9861</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0491</v>
+        <v>14.0503</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2404</v>
@@ -12828,10 +12831,10 @@
         <v>394037.6638</v>
       </c>
       <c r="K36" s="1">
-        <v>392890.2246</v>
+        <v>392936.4432</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0465</v>
+        <v>14.0481</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.382</v>
@@ -12881,10 +12884,10 @@
         <v>387783.4037</v>
       </c>
       <c r="K37" s="1">
-        <v>427325.5846</v>
+        <v>427371.8033</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9803</v>
+        <v>13.9818</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>11.9583</v>
@@ -12934,10 +12937,10 @@
         <v>384095.8074</v>
       </c>
       <c r="K38" s="1">
-        <v>447395.044</v>
+        <v>447441.2627</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9012</v>
+        <v>13.9026</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.2036</v>
@@ -12987,10 +12990,10 @@
         <v>402138.7573</v>
       </c>
       <c r="K39" s="1">
-        <v>457395.044</v>
+        <v>457441.2627</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8527</v>
+        <v>13.8541</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9136</v>
@@ -13040,10 +13043,10 @@
         <v>447961.8077</v>
       </c>
       <c r="K40" s="1">
-        <v>467395.044</v>
+        <v>467441.2627</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8134</v>
+        <v>13.8148</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.4338</v>
@@ -13093,10 +13096,10 @@
         <v>476316.8071</v>
       </c>
       <c r="K41" s="1">
-        <v>489281.6993</v>
+        <v>489327.918</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7718</v>
+        <v>13.7731</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9657</v>
@@ -13146,10 +13149,10 @@
         <v>469334.8231</v>
       </c>
       <c r="K42" s="1">
-        <v>499281.6993</v>
+        <v>499327.918</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7655</v>
+        <v>13.7667</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3568</v>
@@ -13199,10 +13202,10 @@
         <v>503544.8004</v>
       </c>
       <c r="K43" s="1">
-        <v>509281.6993</v>
+        <v>509327.918</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7494</v>
+        <v>13.7506</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2487</v>
@@ -13252,10 +13255,10 @@
         <v>509309.4501</v>
       </c>
       <c r="K44" s="1">
-        <v>529074.772</v>
+        <v>529120.9907</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7353</v>
+        <v>13.7365</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3991</v>
@@ -13305,10 +13308,10 @@
         <v>525164.336</v>
       </c>
       <c r="K45" s="1">
-        <v>539074.772</v>
+        <v>539120.9907</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7265</v>
+        <v>13.7277</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.5985</v>
@@ -13358,10 +13361,10 @@
         <v>557225.9902</v>
       </c>
       <c r="K46" s="1">
-        <v>549074.772</v>
+        <v>549120.9907</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7209</v>
+        <v>13.7221</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.6955</v>
@@ -13411,10 +13414,10 @@
         <v>571167.5401</v>
       </c>
       <c r="K47" s="1">
-        <v>570884.7227</v>
+        <v>570930.9414</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7172</v>
+        <v>13.7184</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3398</v>
@@ -13464,10 +13467,10 @@
         <v>566044.7622</v>
       </c>
       <c r="K48" s="1">
-        <v>582550.7915000001</v>
+        <v>582597.0101</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7174</v>
+        <v>13.7184</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.8469</v>
@@ -13517,10 +13520,10 @@
         <v>566186.1096</v>
       </c>
       <c r="K49" s="1">
-        <v>593212.8905</v>
+        <v>593259.1091</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7109</v>
+        <v>13.712</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.129</v>
@@ -13570,10 +13573,10 @@
         <v>588749.1531</v>
       </c>
       <c r="K50" s="1">
-        <v>614679.2897</v>
+        <v>614725.5083</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6798</v>
+        <v>13.6808</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.716</v>
@@ -13623,10 +13626,10 @@
         <v>579878.8480999999</v>
       </c>
       <c r="K51" s="1">
-        <v>624679.2897</v>
+        <v>624725.5083</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6711</v>
+        <v>13.6721</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.4613</v>
@@ -13676,10 +13679,10 @@
         <v>590361.3528</v>
       </c>
       <c r="K52" s="1">
-        <v>634679.2897</v>
+        <v>634725.5083</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6554</v>
+        <v>13.6564</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.6545</v>
@@ -13729,10 +13732,10 @@
         <v>609578.0299</v>
       </c>
       <c r="K53" s="1">
-        <v>657016.5542</v>
+        <v>657062.7728</v>
       </c>
       <c r="L53" s="1">
-        <v>13.612</v>
+        <v>13.613</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2345</v>
@@ -13782,10 +13785,10 @@
         <v>598973.7698</v>
       </c>
       <c r="K54" s="1">
-        <v>667016.5542</v>
+        <v>667062.7728</v>
       </c>
       <c r="L54" s="1">
-        <v>13.597</v>
+        <v>13.598</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.1636</v>
@@ -13835,10 +13838,10 @@
         <v>618652.9882</v>
       </c>
       <c r="K55" s="1">
-        <v>677016.5542</v>
+        <v>677062.7728</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5752</v>
+        <v>13.5761</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.8145</v>
@@ -13888,10 +13891,10 @@
         <v>610520.3236</v>
       </c>
       <c r="K56" s="1">
-        <v>700261.6744</v>
+        <v>700307.893</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5241</v>
+        <v>13.525</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2352</v>
@@ -13941,10 +13944,10 @@
         <v>590053.3652999999</v>
       </c>
       <c r="K57" s="1">
-        <v>710261.6744</v>
+        <v>710307.893</v>
       </c>
       <c r="L57" s="1">
-        <v>13.497</v>
+        <v>13.4979</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.8241</v>
@@ -13994,10 +13997,10 @@
         <v>592265.8308</v>
       </c>
       <c r="K58" s="1">
-        <v>720261.6744</v>
+        <v>720307.893</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4598</v>
+        <v>13.4607</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2543</v>
@@ -14047,10 +14050,10 @@
         <v>626105.4323</v>
       </c>
       <c r="K59" s="1">
-        <v>744470.0639</v>
+        <v>744516.2825</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3552</v>
+        <v>13.356</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.5675</v>
@@ -14100,10 +14103,10 @@
         <v>597250.7120000001</v>
       </c>
       <c r="K60" s="1">
-        <v>754470.0639</v>
+        <v>754516.2825</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3226</v>
+        <v>13.3234</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967000000000001</v>
@@ -14153,10 +14156,10 @@
         <v>587996.2717</v>
       </c>
       <c r="K61" s="1">
-        <v>764470.0639</v>
+        <v>764516.2825</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2778</v>
+        <v>13.2786</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0064</v>
@@ -14206,10 +14209,10 @@
         <v>600257.4565</v>
       </c>
       <c r="K62" s="1">
-        <v>789760.3707</v>
+        <v>789806.5894000001</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1391</v>
+        <v>13.1399</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-27</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.5846</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-26</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2867</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-25</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.0645</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8083</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-23</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.5636</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.1788</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-21</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.5668</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.962</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-19</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2659</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.4103</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.3976</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-16</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.9013</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.3527</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8804</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.6268</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3636</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.8711</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.1252</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-9</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1934</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-8</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1176</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3311</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-6</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3637</v>
@@ -15451,10 +15454,10 @@
         <v>265439.3278</v>
       </c>
       <c r="K23" s="1">
-        <v>214240.613</v>
+        <v>214253.8086</v>
       </c>
       <c r="L23" s="1">
-        <v>13.3956</v>
+        <v>13.3964</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.6447</v>
@@ -15504,10 +15507,10 @@
         <v>263294.3367</v>
       </c>
       <c r="K24" s="1">
-        <v>227442.5477</v>
+        <v>227455.7433</v>
       </c>
       <c r="L24" s="1">
-        <v>13.4973</v>
+        <v>13.4981</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>15.486</v>
@@ -15557,10 +15560,10 @@
         <v>303995.9105</v>
       </c>
       <c r="K25" s="1">
-        <v>253514.5524</v>
+        <v>253527.7481</v>
       </c>
       <c r="L25" s="1">
-        <v>13.6095</v>
+        <v>13.6102</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.1958</v>
@@ -15610,10 +15613,10 @@
         <v>327120.4567</v>
       </c>
       <c r="K26" s="1">
-        <v>251952.2561</v>
+        <v>251971.6941</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5992</v>
+        <v>13.6002</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.4264</v>
@@ -15663,10 +15666,10 @@
         <v>341397.3559</v>
       </c>
       <c r="K27" s="1">
-        <v>253127.4306</v>
+        <v>253146.8685</v>
       </c>
       <c r="L27" s="1">
-        <v>13.6094</v>
+        <v>13.6105</v>
       </c>
       <c r="M27" s="1">
         <v>0.75</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>17.107</v>
@@ -15716,10 +15719,10 @@
         <v>376967.4803</v>
       </c>
       <c r="K28" s="1">
-        <v>263396.2822</v>
+        <v>263415.7201</v>
       </c>
       <c r="L28" s="1">
-        <v>13.7019</v>
+        <v>13.7029</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>16.8894</v>
@@ -15769,10 +15772,10 @@
         <v>382764.2153</v>
       </c>
       <c r="K29" s="1">
-        <v>265073.5902</v>
+        <v>265093.0282</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7193</v>
+        <v>13.7203</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.4004</v>
@@ -15822,10 +15825,10 @@
         <v>400093.4953</v>
       </c>
       <c r="K30" s="1">
-        <v>284294.9341</v>
+        <v>284314.372</v>
       </c>
       <c r="L30" s="1">
-        <v>13.8972</v>
+        <v>13.8982</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3877</v>
@@ -15875,10 +15878,10 @@
         <v>387763.3083</v>
       </c>
       <c r="K31" s="1">
-        <v>309551.1392</v>
+        <v>309570.5772</v>
       </c>
       <c r="L31" s="1">
-        <v>14.0744</v>
+        <v>14.0753</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>14.6367</v>
@@ -15928,10 +15931,10 @@
         <v>379291.4576</v>
       </c>
       <c r="K32" s="1">
-        <v>347331.096</v>
+        <v>347350.534</v>
       </c>
       <c r="L32" s="1">
-        <v>14.2092</v>
+        <v>14.2099</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>13.0061</v>
@@ -15981,10 +15984,10 @@
         <v>345809.0222</v>
       </c>
       <c r="K33" s="1">
-        <v>379556.6522</v>
+        <v>379576.0901</v>
       </c>
       <c r="L33" s="1">
-        <v>14.2468</v>
+        <v>14.2476</v>
       </c>
       <c r="M33" s="1">
         <v>0.5</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.835</v>
@@ -16034,10 +16037,10 @@
         <v>390430.2729</v>
       </c>
       <c r="K34" s="1">
-        <v>389556.6522</v>
+        <v>389576.0901</v>
       </c>
       <c r="L34" s="1">
-        <v>14.2128</v>
+        <v>14.2135</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.4216</v>
@@ -16087,10 +16090,10 @@
         <v>417318.9601</v>
       </c>
       <c r="K35" s="1">
-        <v>411545.3164</v>
+        <v>411564.7543</v>
       </c>
       <c r="L35" s="1">
-        <v>14.1937</v>
+        <v>14.1943</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.2404</v>
@@ -16140,10 +16143,10 @@
         <v>392281.0282</v>
       </c>
       <c r="K36" s="1">
-        <v>421545.3164</v>
+        <v>421564.7543</v>
       </c>
       <c r="L36" s="1">
-        <v>14.1997</v>
+        <v>14.2003</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.382</v>
@@ -16193,10 +16196,10 @@
         <v>386849.8047</v>
       </c>
       <c r="K37" s="1">
-        <v>431545.3164</v>
+        <v>431564.7543</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1766</v>
+        <v>14.1772</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>11.9583</v>
@@ -16246,10 +16249,10 @@
         <v>383191.7657</v>
       </c>
       <c r="K38" s="1">
-        <v>452232.6358</v>
+        <v>452252.0738</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0847</v>
+        <v>14.0853</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>12.2036</v>
@@ -16299,10 +16302,10 @@
         <v>401216.1719</v>
       </c>
       <c r="K39" s="1">
-        <v>462232.6358</v>
+        <v>462252.0738</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0314</v>
+        <v>14.032</v>
       </c>
       <c r="M39" s="1">
         <v>0.4</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.9136</v>
@@ -16352,10 +16355,10 @@
         <v>446958.2748</v>
       </c>
       <c r="K40" s="1">
-        <v>472232.6358</v>
+        <v>472252.0738</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9877</v>
+        <v>13.9883</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.4338</v>
@@ -16405,10 +16408,10 @@
         <v>475272.9668</v>
       </c>
       <c r="K41" s="1">
-        <v>494092.0208</v>
+        <v>494111.4588</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9378</v>
+        <v>13.9383</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.9657</v>
@@ -16458,10 +16461,10 @@
         <v>468327.3505</v>
       </c>
       <c r="K42" s="1">
-        <v>504092.0208</v>
+        <v>504111.4588</v>
       </c>
       <c r="L42" s="1">
-        <v>13.928</v>
+        <v>13.9285</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3568</v>
@@ -16511,10 +16514,10 @@
         <v>502485.9179</v>
       </c>
       <c r="K43" s="1">
-        <v>514092.0208</v>
+        <v>514111.4588</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9085</v>
+        <v>13.909</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.2487</v>
@@ -16564,10 +16567,10 @@
         <v>508259.2221</v>
       </c>
       <c r="K44" s="1">
-        <v>533864.0717</v>
+        <v>533883.5097000001</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8883</v>
+        <v>13.8888</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.3991</v>
@@ -16617,10 +16620,10 @@
         <v>524102.1856</v>
       </c>
       <c r="K45" s="1">
-        <v>543864.0717</v>
+        <v>543883.5097000001</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8765</v>
+        <v>13.877</v>
       </c>
       <c r="M45" s="1">
         <v>0.4</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.5985</v>
@@ -16670,10 +16673,10 @@
         <v>556119.439</v>
       </c>
       <c r="K46" s="1">
-        <v>553864.0717</v>
+        <v>553883.5097000001</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8681</v>
+        <v>13.8686</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.6955</v>
@@ -16723,10 +16726,10 @@
         <v>570060.4558</v>
       </c>
       <c r="K47" s="1">
-        <v>577973.5956999999</v>
+        <v>577993.0336</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8578</v>
+        <v>13.8583</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.3398</v>
@@ -16776,10 +16779,10 @@
         <v>564955.7158</v>
       </c>
       <c r="K48" s="1">
-        <v>587973.5956999999</v>
+        <v>587993.0336</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8555</v>
+        <v>13.856</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.8469</v>
@@ -16829,10 +16832,10 @@
         <v>565131.1905</v>
       </c>
       <c r="K49" s="1">
-        <v>597973.5956999999</v>
+        <v>597993.0336</v>
       </c>
       <c r="L49" s="1">
-        <v>13.847</v>
+        <v>13.8475</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.129</v>
@@ -16882,10 +16885,10 @@
         <v>587671.1077000001</v>
       </c>
       <c r="K50" s="1">
-        <v>619431.336</v>
+        <v>619450.774</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8108</v>
+        <v>13.8113</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>12.716</v>
@@ -16935,10 +16938,10 @@
         <v>578834.7089</v>
       </c>
       <c r="K51" s="1">
-        <v>629431.336</v>
+        <v>629450.774</v>
       </c>
       <c r="L51" s="1">
-        <v>13.7999</v>
+        <v>13.8003</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.4613</v>
@@ -16988,10 +16991,10 @@
         <v>589315.9136</v>
       </c>
       <c r="K52" s="1">
-        <v>639431.336</v>
+        <v>639450.774</v>
       </c>
       <c r="L52" s="1">
-        <v>13.782</v>
+        <v>13.7824</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.6545</v>
@@ -17041,10 +17044,10 @@
         <v>608516.4735</v>
       </c>
       <c r="K53" s="1">
-        <v>661746.3859</v>
+        <v>661765.8238</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7339</v>
+        <v>13.7343</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.2345</v>
@@ -17094,10 +17097,10 @@
         <v>597947.4496000001</v>
       </c>
       <c r="K54" s="1">
-        <v>671746.3859</v>
+        <v>671765.8238</v>
       </c>
       <c r="L54" s="1">
-        <v>13.717</v>
+        <v>13.7174</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.1636</v>
@@ -17147,10 +17150,10 @@
         <v>617609.9157</v>
       </c>
       <c r="K55" s="1">
-        <v>681746.3859</v>
+        <v>681765.8238</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6931</v>
+        <v>13.6935</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>11.8145</v>
@@ -17200,10 +17203,10 @@
         <v>609507.2756000001</v>
       </c>
       <c r="K56" s="1">
-        <v>704968.811</v>
+        <v>704988.249</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6376</v>
+        <v>13.638</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.2352</v>
@@ -17253,10 +17256,10 @@
         <v>589089.9949</v>
       </c>
       <c r="K57" s="1">
-        <v>714968.811</v>
+        <v>714988.249</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6087</v>
+        <v>13.609</v>
       </c>
       <c r="M57" s="1">
         <v>0.3</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.8241</v>
@@ -17306,10 +17309,10 @@
         <v>591314.5147000001</v>
       </c>
       <c r="K58" s="1">
-        <v>724968.811</v>
+        <v>724988.249</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5696</v>
+        <v>13.5699</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>11.2543</v>
@@ -17359,10 +17362,10 @@
         <v>625116.3975</v>
       </c>
       <c r="K59" s="1">
-        <v>749154.0027</v>
+        <v>749173.4407</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4604</v>
+        <v>13.4608</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.5675</v>
@@ -17412,10 +17415,10 @@
         <v>596322.0312</v>
       </c>
       <c r="K60" s="1">
-        <v>759154.0027</v>
+        <v>759173.4407</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4262</v>
+        <v>13.4265</v>
       </c>
       <c r="M60" s="1">
         <v>0.3</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.967000000000001</v>
@@ -17465,10 +17468,10 @@
         <v>587096.588</v>
       </c>
       <c r="K61" s="1">
-        <v>769154.0027</v>
+        <v>769173.4407</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3796</v>
+        <v>13.3799</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.0064</v>
@@ -17518,10 +17521,10 @@
         <v>599354.3136</v>
       </c>
       <c r="K62" s="1">
-        <v>794420.5343000001</v>
+        <v>794439.9722</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2366</v>
+        <v>13.2369</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.021</v>
       </c>
       <c r="D3" s="1">
-        <v>12.6586</v>
+        <v>12.6626</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9739</v>
+        <v>12.9765</v>
       </c>
       <c r="F3" s="1">
-        <v>13.1391</v>
+        <v>13.1399</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2366</v>
+        <v>13.2369</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>194439.9722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.7669</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.7915</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.7696</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.7544</v>
       </c>
     </row>
   </sheetData>
